--- a/excel/mean_gap_all_model_all_benchmark.xlsx
+++ b/excel/mean_gap_all_model_all_benchmark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,186 +444,6179 @@
           <t>10x5</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>10x10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>15x5</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15x10</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>15x15</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>20x5</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>20x10</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>20x15</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>20x20</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>30x10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>30x15</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>30x20</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>50x10</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>50x15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>50x20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>abz 10x10 500</t>
+          <t>tai 15x15 500</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03083842</v>
+        <v>0.09180307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04423965</v>
+        <v>0.10874962</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08552777</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1294149</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08634412</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08548016999999999</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.12452992</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.08924101</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08074048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.08707987</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.09122909</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0898801</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.06852426</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.1559898</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.10622071</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.09245219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>abz 10x10 1000</t>
+          <t>tai 15x15 1000</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03083842</v>
+        <v>0.08264558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02718702</v>
+        <v>0.09596637</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06997854000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.11762059</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07469624</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07199585</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.11334267</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08174712000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.06845565000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07938940999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.08140417</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.07595766</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.06089714</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.14510512</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.09253074999999999</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.08362467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>abz 10x10 2000</t>
+          <t>tai 15x15 2000</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01970375</v>
+        <v>0.06465566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02718702</v>
+        <v>0.08014969</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05776141</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.11125356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06622636</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05423695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.10371909</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06657506000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0588403</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.06930306</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.06738624</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.06578779999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05753528</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1329119</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.08455567</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.07314178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>abz 10x10 5000</t>
+          <t>tai 15x15 5000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0152467</v>
+        <v>0.05552102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01646225</v>
+        <v>0.07096171</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04862089</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.10117891</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05035592</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04963419</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.08857814999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05245777</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.04994877</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05699818</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.06013636</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.05339006</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05021846</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.12581613</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.07431401999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.06081285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>abz 20x15 500</t>
+          <t>tai 20x15 500</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.12437076</v>
+        <v>0.10471414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1323744</v>
+        <v>0.13343659</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09978665</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.13624218</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.10303119</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.10331705</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.14345236</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.10611544</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.105721</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09778750999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.11240839</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.10498983</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.10176221</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1786764</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.11928213</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.12016767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>abz 20x15 1000</t>
+          <t>tai 20x15 1000</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.10179498</v>
+        <v>0.09674530000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12535686</v>
+        <v>0.11204868</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08793225</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.12733122</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08561133</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.08924471</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.13502646</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08665742</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.09634453</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.08791686999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.09902965</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.09050941</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.09136825</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.16835551</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.10971639</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.09745297999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>abz 20x15 2000</t>
+          <t>tai 20x15 2000</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09048721</v>
+        <v>0.0856532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11343656</v>
+        <v>0.10046239</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07677837999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.12033714</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07706548000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08205808000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.11908907</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07415914</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0801135</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.07818489000000001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.08897142</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0770463</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07631116</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.15740155</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.10069085</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.08355446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>abz 20x15 5000</t>
+          <t>tai 20x15 5000</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08255224999999999</v>
+        <v>0.07670771999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09983934</v>
+        <v>0.08983956999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.06795679</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.11251151</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.05760876</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.06933771</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.10653468</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06478583</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.06778629999999999</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.07184695000000001</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.078651</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.06310033</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.06863837</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.14816518</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.08745707</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.07447943</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dummy</t>
+          <t>tai 20x20 500</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>0.12359731</v>
       </c>
       <c r="C10" t="n">
-        <v>-1</v>
+        <v>0.14717388</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.11305577</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.15403141</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.10525316</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.10657113</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.15631427</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.11382828</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.10956644</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.10617276</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.13429637</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.11464531</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.10787914</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1860387</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.13647755</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.12506018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>orb 10x10 500</t>
+          <t>tai 20x20 1000</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05789814</v>
+        <v>0.11062458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08690033</v>
+        <v>0.13090428</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09992631</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.14567752</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09189811000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.10176866</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.14995769</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.10031178</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.09242748000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.09370173</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.11840779</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.09817333</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09574972</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.17767517</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.11736131</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.10904762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>orb 10x10 1000</t>
+          <t>tai 20x20 2000</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05106913</v>
+        <v>0.09591241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07410627</v>
+        <v>0.11908247</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08418162999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.13040386</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.08625347</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.08437231000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.13603054</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.08172897</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.08008841999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.08083202</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.10941606</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.08628039999999999</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.08528812</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.16820961</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.10759964</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.09552853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>orb 10x10 2000</t>
+          <t>tai 20x20 5000</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04732552</v>
+        <v>0.08189668999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07015971999999999</v>
+        <v>0.1024105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07050298000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.12513794</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06991972</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.07773231999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.12419647</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06859857</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07151338</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.06466471999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.09831172000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.07335803</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.07001137</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.15369385</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.09341637999999999</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.08072876</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>orb 10x10 5000</t>
+          <t>tai 30x15 500</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03482188</v>
+        <v>0.14856388</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06646383</v>
+        <v>0.15110212</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.16232635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.15377716</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.14523891</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.16620125</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.15726157</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.14013673</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.16344225</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.16665985</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.13675615</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.13260219</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.13881493</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.16467216</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.13810237</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.13411531</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>tai 30x15 1000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.13240187</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.13038336</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.14921669</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.13481584</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.12849113</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.15504764</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.13913093</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.11754209</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.14752404</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.15784306</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.11484841</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.10741991</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.12169322</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.15456046</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.11654607</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.11322842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>tai 30x15 2000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.11315786</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.11606042</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.13260417</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.11871551</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.11357065</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.14519721</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.11974228</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.09296029</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.13667264</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1491097</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.09673623000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.08892882000000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.10160923</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1395181</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.09776738</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.09625045</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>tai 30x15 5000</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.09985102999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.09352004</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.11247463</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.10016419</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.09947216</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.13782081</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.09961535000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07297457</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.12358574</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.13786332</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.07827681</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.07211012</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.09193124</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1173973</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.08322056</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.07406329</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>tai 30x20 500</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.17142752</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.19253092</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.17861714</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.19419541</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.17733986</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.17424151</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.20486907</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.17834777</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.17228393</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.17525297</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.17872292</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1694806</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.17335468</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.21444426</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.16952678</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.16905112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>tai 30x20 1000</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.15484166</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.16952261</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.15604123</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.17895788</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.15470221</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.15215168</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.18761577</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.15755733</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.15473664</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.16037149</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.15414267</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.14664311</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.15739306</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.20559874</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.15404377</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.15082797</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>tai 30x20 2000</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.13574135</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.15579968</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.13882561</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.16091057</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.13417389</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.13295002</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.16475026</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1356483</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.13078058</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.14796413</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.13855669</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1290796</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.14008226</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.19047288</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.13168469</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.12750511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>tai 30x20 5000</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.11252315</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.13293237</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.11387105</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.14698895</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.10788437</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.11982971</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.14645706</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.10710611</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.11380349</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.13109166</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.11567939</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.10430346</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11710017</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.17619678</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.11878181</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.10877283</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x15 500</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.10379474</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.10271541</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.13166112</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.10212907</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.11422183</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.13231869</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1079722</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.10196892</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.11998687</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.14223823</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.09381932</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.09663481</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.11164524</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.09928734</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.09281293</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0911341</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x15 1000</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.08322694</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.07793822</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.12314482</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07564547000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.10058276</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.12319443</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.08444047</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.08066806</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.11658125</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.13947289</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.07262681999999999</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.07662757000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.10159665</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.07599181000000001</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.07023544</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.07187793000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x15 2000</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.05992733</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0594741</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.10788764</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05657383</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08527232</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1197296</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.06178658</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06522346</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.10834193</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.13106884</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0510779</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.06065051</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.09686451</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0574825</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.04798212</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.04572833</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x15 5000</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.03831273</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03087738</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.08718052</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03300237</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.07050032000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.10957412</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03445908</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.04433128</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.09445589</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.11931208</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01971823</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.03999464</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.09002162</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.03881556</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.01715083</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.02168043</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x20 500</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.12790309</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1259462</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.14403567</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.12858477</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.13206703</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.13850158</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.13167119</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.13509866</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.13731634</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.14701904</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.12552045</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.12470499</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.12667221</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.13930738</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.12345482</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.12112806</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x20 1000</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.10817099</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.10353569</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.12592912</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.10931872</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.11449515</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.127664</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.11613152</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.11386306</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.12215911</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.13945613</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.10289603</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.10131026</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.11104267</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.12186212</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.10424517</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.10141675</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x20 2000</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.08655929</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08883766999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.11090224</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08954452</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09251309000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.11302226</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.09709495999999999</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.09501806</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.10422621</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.12997713</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.08265931</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.07813249</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.09680506999999999</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.10671572</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.08132651</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.08113430000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>tai 50x20 5000</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.06302322</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.06656769999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.08541364999999999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.07052737000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.06597847</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.09545368999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.06679267</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.06916541</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.08273307000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.11414949</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.06156461</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.05257515</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.07957598</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.08686475</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.05699403</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.05555703</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>tai 100x20 500</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.07025095000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06907156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.09613434999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.06434217</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.08245241</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.08953999999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.07167084999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.08642227</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.08350093</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.09116036</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.06566818000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.07134775</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.07551906999999999</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.06686903</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.06649309</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.06575236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>tai 100x20 1000</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.05488393</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.05197001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.08728538</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.04949473</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.07026892999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.08035448000000001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05567124</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.07721443</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.07212687</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.08922597</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.04870456</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0563559</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.06479395</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.05266233</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.04950269</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.04958258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>tai 100x20 2000</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.03949929</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0367958</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07988873000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.03477593</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05120638</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.07587511</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03928491</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.06604582000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06279678</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.08153106</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.03112381</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.04117044</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.05487591</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.03572705</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.03044061</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.03306847</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>tai 100x20 5000</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.02016529</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01889398</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07281535</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01620755</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.02715942</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.07017076999999999</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.01885634</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.04947783</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.04545526</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.07672646</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01429223</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.02543964</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04407053</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01693885</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.01288414</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.01321977</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
           <t>dummy</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>abz 10x10 500</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.03083842</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.04423965</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01206536</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.05514961</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.03429991</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02550612</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04320928</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05275802</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.02160464</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01471647</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.02457071</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.01265574</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.02638137</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.09911383</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.04318393</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.03186406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>abz 10x10 1000</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.03083842</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02718702</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01166017</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.03651103</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.03429991</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01225055</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03753667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03320939</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01630241</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.009414250000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.02457071</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01265574</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.0152467</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.09587234</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.04277875</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.03186406</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>abz 10x10 2000</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01970375</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02718702</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.00841868</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03651103</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.02528612</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01225055</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03753667</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.01465159</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0138713</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.009414250000000001</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.02457071</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.01225055</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01066461</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.06238281</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.041158</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.02740701</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>abz 10x10 5000</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0152467</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01646225</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.00841868</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03489029</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.01565188</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.009009059999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02213486</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0114101</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.009819430000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.009414250000000001</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.02457071</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0106298</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.00536238</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.04536498</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.03317458</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.02528612</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>abz 20x15 500</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.12437076</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1323744</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.11463534</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.14733387</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.12028931</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.11484968</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.14877863</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.10417895</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.11678874</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.12082081</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.11984431</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.11916725</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.12883539</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.18460134</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.12307305</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.12537608</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>abz 20x15 1000</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.10179498</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.12535686</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.10229623</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.13994275</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.09361569</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.09681674999999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.11654715</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.09180960000000001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.10687346</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.09634018</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1060495</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.10479015</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.10134451</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.18258945</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.11204955</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.11688767</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>abz 20x15 2000</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.09048721</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.11343656</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0854417</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.12293013</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.08956714</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.08483597</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.10943333</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.08687396</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.08656236</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.08691654</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.10008252</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.08534410000000001</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.08400522000000001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.17150272</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.10858883</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.09947961</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>abz 20x15 5000</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.08255224999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.09983934</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0674115</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.11699198</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.07800244000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.07057835</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.10943333</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.07193239</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.07389349000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0799855</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.08505719</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.06899497</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.06899215</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.15467147</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.09344384999999999</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.08854806</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>dummy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>ft 6x6 500</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.05454545</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.05454545</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.05454545</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.01818182</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>ft 6x6 1000</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.05454545</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.05454545</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.01818182</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>ft 6x6 2000</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>ft 6x6 5000</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>ft 10x10 500</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.06774194</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.08817203999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.03978495</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1827957</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.07634409</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.08924731</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.07956989</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.08924731</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.04408602</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.06451613</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.12365591</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.07419355</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.07526882</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.15376344</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.10107527</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.09462366</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>ft 10x10 1000</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.06774194</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.08817203999999999</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.03978495</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1311828</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.07634409</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.05268817</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.07956989</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.07419355</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.04408602</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.06451613</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.09784946</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.07419355</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.07526882</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.12795699</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.09892473</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.07849462</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>ft 10x10 2000</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.06774194</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.07204301</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.02258065</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1311828</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05806452</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05268817</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.07956989</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.07419355</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.04408602</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06451613</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.09784946</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.07419355</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.06344086</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.12795699</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.09892473</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.07849462</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>ft 10x10 5000</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.04623656</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.06666667</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.02258065</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.07634409</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.05806452</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02473118</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.06774194</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.04408602</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.03978495</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.06451613</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.06666667</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0516129</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.04516129</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.12795699</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.07741935</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.06236559</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>ft 20x5 500</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.08412016999999999</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.03175966</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.18798283</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.03690987</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0583691</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.16824034</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.07467811000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.02918455</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.15021459</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.09613734</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.02832618</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.02918455</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0583691</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.02832618</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.04120172</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.01974249</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>ft 20x5 1000</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.02317597</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01373391</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.11072961</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.00686695</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0583691</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.16824034</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.04034335</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.02918455</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.15021459</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.09613734</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.01287554</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01974249</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0583691</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.00515021</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.02746781</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.01974249</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>ft 20x5 2000</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01030043</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01373391</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.07467811000000001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.00429185</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.05493562</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.16824034</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0223176</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.01373391</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0111588</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.09613734</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.00429185</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.01974249</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.01459227</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.00343348</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.0111588</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.01974249</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>ft 20x5 5000</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.03776824</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.00429185</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03862661</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.09785408</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01716738</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0111588</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0111588</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.09613734</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.00257511</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01287554</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.01459227</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.00343348</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.00686695</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>dummy</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>la 10x5 500</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.02192853</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01277081</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.02072231</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01743155</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0155359</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03647863</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.01870431</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.01551373</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.01819638</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.02916778</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01704045</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.01594291</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0153264</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.03359443</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.01972052</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.01046475</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>la 10x5 1000</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.02040181</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01114317</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01634335</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.01440853</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00850072</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03647863</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01700939</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.01144593</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01551631</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.02916778</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01673511</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.01502687</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0132925</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.02564691</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.01838049</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.00271186</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>la 10x5 2000</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.02040181</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.00538001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01146044</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01440853</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00505295</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0351227</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.01307615</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01144593</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01551631</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.02916778</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01365201</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.00536227</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0132925</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.01621749</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.01532705</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.00271186</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>la 10x5 5000</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.01348242</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.00403997</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01146044</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01257647</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00505295</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0351227</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.00941203</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01144593</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01246288</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.02916778</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01365201</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.00505692</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0132925</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.01102665</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.009966920000000001</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.00271186</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>la 15x5 500</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>la 15x5 1000</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>la 15x5 2000</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>la 15x5 5000</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>la 20x5 500</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0026512</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.008782099999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>la 20x5 1000</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0026512</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.008782099999999999</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>la 20x5 2000</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0026512</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.008782099999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>la 20x5 5000</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0026512</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.0067937</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>la 10x10 500</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.02018872</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.04487631</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.02433004</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.06992009</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.036327</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.02473547</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.05341241</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.04012746</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.02327976</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.02947939</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.04628221</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.03131568</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.02796269</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.09174063</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.0499998</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.03780648</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>la 10x10 1000</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01613439</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.04212499</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.02337992</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.06347638</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0286894</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.01952561</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.04618566</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.03483078</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01862344</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0225977</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.04118244</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.03131568</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.02368715</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.08415649</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.04139761</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.03277789</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>la 10x10 2000</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0087945</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.03193506</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.02337992</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.05805185</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.02449492</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.00935865</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0442809</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0284984</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.01862344</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.01110051</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0356543</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.01844575</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.02241164</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.07236404</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.03610661</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.02839123</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>la 10x10 5000</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0087945</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0240468</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01760519</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.05479232</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01895007</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.00745841</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.03150554</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.02455342</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01490235</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.00761694</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0211443</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.01539641</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.01559911</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.06182559</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.01881677</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.02057785</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>la 15x10 500</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.05937768</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.05949819</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06187272</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.08374964</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.04979622</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.06596326</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.06900181</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.05253206</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0444771</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.05354864</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0601681</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.05322025</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.05606626</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.10730581</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.05348558</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.06123223</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>la 15x10 1000</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.04612422</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.05638647</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.06064447</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.07373863999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.03854969</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.05936843</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.06169348</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.04007281</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.04390349</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.05076604</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.04949809</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.04365307</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.04511349</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.09797024</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.04576105</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.05129555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>la 15x10 2000</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.04030706</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.05028383</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.05593859</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.07222839</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0298348</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.05100773</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.06062396</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.03077561</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.03692585</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.04360125</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.04735905</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.04127982</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.04280653</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.09001273</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.03917614</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.04076772</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>la 15x10 5000</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.03514453</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.04271732</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.05593859</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.05615848</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01991862</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.04777148</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.03650197</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.02820877</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.02764415</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.04091923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.03681136</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.03587776</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.03426495</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.0851881</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.03467256</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.03706335</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>la 20x10 500</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.05258226</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.07650295999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.06667691000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.07653545</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.06230733</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.08491650000000001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.08914017</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.04891933</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.07363231000000001</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.07981510999999999</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0590652</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.05889756</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.05475248</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.10153403</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.07221595</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.05615191</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>la 20x10 1000</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.03929904</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.05206448</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.06127533</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.06623242</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.05441237</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.07846069999999999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.06617052</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.03379635</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.05969773</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.07981510999999999</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.04237988</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.04709876</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.04350253</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.08743917</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.04996707</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.04240098</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>la 20x10 2000</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.03449261</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.04206929</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0571846</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.05769835</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.04625401</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.06073338</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.05173414</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.02138847</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.05205884</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.06904035</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.03145408</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.03168761</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03599789</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.07364921000000001</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.04154901</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.03726705</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>la 20x10 5000</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.02814004</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.03219033</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0446312</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.04258513</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.02553378</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.05751308</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.03670743</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.02138847</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.03760086</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.05984906</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.02662632</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.0260196</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.02815002</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.06204263</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.03534512</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.03040003</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>la 30x10 500</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.00139454</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.00011621</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.008832069999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.00278908</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00581685</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02986039</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.00778617</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.03079032</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.00546735</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.00023242</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>la 30x10 1000</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.008832069999999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02077934</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.02858231</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.00302691</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>la 30x10 2000</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.008832069999999999</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02077934</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.01312618</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.00302691</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>la 30x10 5000</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.008832069999999999</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.00503962</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.00963983</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.00302691</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>la 15x15 500</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.06824305999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.09280418999999999</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.07998813</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.11560141</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0729905</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.06351084999999999</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.10114653</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.06774373</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.07307709</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.06735144999999999</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.09157148</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.07453238</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.06202909</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.13763925</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.07791185</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.07748147</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>la 15x15 1000</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.06152699</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.09051286</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.06819105</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.10679027</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.05979943</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.06300918</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.09098227</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.06124123</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.06201232</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0582305</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.07470607999999999</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.06325209</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.05526789</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.13616626</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.07195999</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.06671422</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>la 15x15 2000</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.05349216</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.07832871</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.05939625</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.09950248</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.04698477</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.05504062</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.08459928999999999</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.05011745</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.05508233</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.05640053</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.07015389</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.05486097</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.05494347</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.12896495</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.06056562</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.05655748</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>la 15x15 5000</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.04841851</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.06715467</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.04606409</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.08351786</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.03800131</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03470197</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.07504944</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.0464429</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03845901</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.04262337</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.05725298</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.04656364</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.04608254</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.12272499</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.05794696</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.05329583</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>dummy</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x10 500</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.26350035</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.23769089</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.31362183</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.23070302</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.2781547</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.30178375</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.27677045</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.22806245</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.29384261</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.32707305</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.21527018</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.22692748</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.29223339</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.27536671</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.23143786</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.20809354</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x10 1000</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.22548778</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.19909463</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.27953973</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2024416</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.27309852</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.29115559</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.25252236</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.20589218</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.28547569</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.3218818</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.18250847</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.18532321</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.27388834</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.21710952</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.17614346</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.18221388</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x10 2000</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.18599987</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.15471246</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.256884</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.1688336</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.26216956</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.29074881</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.21134497</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.16616902</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.26881516</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.29564975</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.1301114</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.14247148</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.24213226</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.19164876</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.13910058</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.13797788</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x10 5000</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.12635913</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.12383976</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.24049362</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1341318</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.23458698</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.25719863</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.15688459</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.10138427</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.24459195</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.2747423</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.10229001</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.10452503</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.18045394</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.15338163</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.10794988</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.10329251</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x15 500</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.25131244</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.26068313</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.25130558</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2640861</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2398498</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.26144278</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.27781679</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.23129844</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.27859694</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.28109724</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.24031221</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.22939057</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.25688672</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.28935314</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.25318644</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.24076431</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x15 1000</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.21070908</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.23766816</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.22043639</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.2231365</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.21118556</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.24017517</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.25774071</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.2150115</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.23794966</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.25953712</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.20672202</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.19977246</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.22464358</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.2678196</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.21968673</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.202169</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x15 2000</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.17968987</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.19477638</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.20075966</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.20624366</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.18366506</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.21022784</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.23154094</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.19016751</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.22460128</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.24023433</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.17709113</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.16993133</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.2090563</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.25865899</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.19673229</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.17459709</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>swv 20x15 5000</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.14379544</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.16717991</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.16211209</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.1770918</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.14373972</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.17367127</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.18781626</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.14379433</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.19867315</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.21168069</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.15258981</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.1397037</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.15591404</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.23229111</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.16110127</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.14143929</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>swv 50x10 500</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.21296104</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2054784</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.22739049</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2046565</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2111839</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.22848601</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.21048651</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.20498354</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.22626368</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.24156196</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.19709115</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.20321448</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.22882372</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.20477631</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.19767089</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.20120304</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>swv 50x10 1000</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.20049342</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.19201919</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.22627446</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.19266768</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.20265191</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.22588826</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.1957402</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.19128709</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.22270258</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.23839676</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.17946685</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.19390951</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.22225364</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.19288412</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.18118006</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.18885286</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>swv 50x10 2000</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.18312832</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.17734612</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.22459084</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.17459229</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.19834573</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.22536833</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.18332334</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.18113041</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.21488935</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.23327547</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.16020449</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.19099298</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.21617098</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.17688196</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.16064444</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.17721775</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>swv 50x10 5000</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.16310784</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1572579</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.22015085</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.15587877</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.19128554</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.22379326</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.16104488</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.17410693</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.21246373</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.23007629</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.12938514</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.18696829</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.21077785</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.15253698</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.12925499</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.15459679</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>dummy</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>orb 10x10 500</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.05789814</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.09046468000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.06232677</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.11911204</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.06210634</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.07040138999999999</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.11605595</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.07041936</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.07285353999999999</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.06394705000000001</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.08855418</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.07378787000000001</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.07469555999999999</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.14481179</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.1002376</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.09043096</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>orb 10x10 1000</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.05106913</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.07974982999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.05840514</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.11569496</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.05034798</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.06437079</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.09887005</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.06421565999999999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.06893165</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.05852337</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.07437091</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.06724007</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.07206920999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.12779407</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.08483776</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.06989956999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>orb 10x10 2000</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.04732552</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.07233794</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.05693345</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.10516961</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.04627035</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.0470575</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.08286083</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.05887324</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.06051672</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.05212284</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.06486282</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.0541553</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.06467516</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.12378684</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.06737826</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.05538815</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>orb 10x10 5000</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.03482188</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.06897575</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.04082731</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.09126446000000001</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.03957304</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.04635456</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.06974075</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.052187</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.04642769</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.03896997</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.06067827</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.04557814</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.04803079</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.11369557</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.05937121</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.04718156</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>dummy</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>yn 20x20 500</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.13800904</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1229003</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.11788156</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.17971759</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.10538164</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.10529869</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.17011259</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.11166208</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.12966582</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.10758185</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.11619254</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.11700059</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.10248757</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.19975453</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.12299779</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.11386726</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>yn 20x20 1000</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.11388288</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1124923</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.09588885</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.16241552</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.08997073</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.08306927</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.15866401</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.09203934</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.10598479</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0852236</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.10529604</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.09631144</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.08201186000000001</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.19274459</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.10895548</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.09482251999999999</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>yn 20x20 2000</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0960307</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.10651049</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.08040964</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.14223374</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.07308924999999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.07186596000000001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.14301285</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.07642545000000001</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0773916</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.07573937</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.09721754000000001</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.06774325</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.07612947</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.17312692</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.10193779</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.0774571</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>yn 20x20 5000</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.08044509</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.10029614</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.06786478</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1244688</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.06218899</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.05733661</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.13131678</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.06264984</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.06718755999999999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.06177959</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.08695547000000001</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.06105603</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.06813674</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.16933366</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.07983447</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.0716347</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>dummy</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q112" t="n">
         <v>-1</v>
       </c>
     </row>
